--- a/Jashera 2024/заказ ЭБЦ на 26 апреля.xlsx
+++ b/Jashera 2024/заказ ЭБЦ на 26 апреля.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9144" tabRatio="875" activeTab="5"/>
+    <workbookView windowWidth="22188" windowHeight="9120" tabRatio="875" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Ляндзберг 6 дн 14 чел" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,20 @@
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Хайтов 4 дн 15 чел с 1 мая'!$A$1:$E$53</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Хайтов 4 дн 15 чел с 9 мая '!$A$1:$E$53</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -252,7 +265,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
@@ -4912,7 +4925,7 @@
   <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -5744,8 +5757,8 @@
   <sheetPr/>
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
